--- a/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="43" r:id="rId4"/>
+    <sheet name="IPO" sheetId="44" r:id="rId4"/>
     <sheet name="畫面_APF0601_SyncPermission" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0601_SyncPermission" sheetId="14" r:id="rId6"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -763,6 +763,10 @@
     <t>PK,FK
 apf_user_roleblock.Rid = Core_Role.Rid</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1465,6 +1469,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,24 +1517,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1504,39 +1529,177 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,165 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2889,6 +2893,1095 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32769" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s32769"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131015</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -3415,7 +4508,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4295,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4695,7 +5788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
@@ -4711,15 +5804,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="91" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="80"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="80"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4736,45 +5829,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="83" t="s">
         <v>25</v>
       </c>
@@ -4786,31 +5879,31 @@
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="87" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="83" t="s">
         <v>27</v>
       </c>
@@ -4822,32 +5915,32 @@
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="87" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="99" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="84"/>
@@ -4858,30 +5951,30 @@
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="99" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="84"/>
@@ -4892,60 +5985,55 @@
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="91"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4962,6 +6050,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5029,15 +6122,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="92"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="32769" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="32769" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -5077,7 +6221,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="126" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -5098,7 +6242,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5111,7 +6255,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5126,7 +6270,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="84"/>
@@ -5140,57 +6284,57 @@
       <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="131" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="84"/>
@@ -5204,21 +6348,21 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="131" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="84"/>
@@ -5232,21 +6376,21 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="131" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="84"/>
@@ -5260,18 +6404,18 @@
       <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5280,70 +6424,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="115"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5352,80 +6496,80 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157"/>
     </row>
     <row r="27" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -5440,14 +6584,14 @@
       <c r="D27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
     </row>
@@ -5456,180 +6600,180 @@
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
     </row>
     <row r="29" spans="1:12" s="52" customFormat="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="127"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113"/>
     </row>
     <row r="32" spans="1:12" s="54" customFormat="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="148"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="119"/>
     </row>
     <row r="35" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="139" t="s">
+      <c r="C36" s="121"/>
+      <c r="D36" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="88"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="152"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="109"/>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="141"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="154"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="63"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="64" t="s">
@@ -5652,14 +6796,14 @@
       <c r="B43" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="88"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="63">
@@ -5668,27 +6812,27 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A31:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="K1:K3"/>
@@ -5705,16 +6849,16 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A31:J34"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5767,7 +6911,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="126" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -5794,7 +6938,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5812,7 +6956,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5948,18 +7092,18 @@
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6058,18 +7202,18 @@
       <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:23" s="52" customFormat="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
@@ -6192,18 +7336,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6424,18 +7568,18 @@
       <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="42" t="s">
@@ -6568,18 +7712,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="130"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
@@ -6702,18 +7846,18 @@
       <c r="J45" s="75"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="127"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="42" t="s">

--- a/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -2787,13 +2787,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2838,13 +2838,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2911,8 +2911,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1428750"/>
-          <a:ext cx="9906000" cy="512989"/>
+          <a:off x="0" y="1447386"/>
+          <a:ext cx="9929191" cy="520443"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3475,7 +3475,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="47625"/>
-          <a:ext cx="9906000" cy="522514"/>
+          <a:ext cx="9929191" cy="528726"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -5786,10 +5786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6016,21 +6016,21 @@
       <c r="K15" s="86"/>
       <c r="L15" s="87"/>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="96" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="98"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6038,7 +6038,7 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A79:L79"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -6081,8 +6081,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6100,13 +6100,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>79</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>93</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -6125,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6880,8 +6880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
@@ -1469,32 +1469,65 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1505,38 +1538,116 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1547,10 +1658,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,36 +1697,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1606,111 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2787,13 +2787,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>77</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5788,7 +5788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
@@ -5804,15 +5804,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="79" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="92"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="92"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5829,45 +5829,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="83" t="s">
         <v>25</v>
       </c>
@@ -5879,31 +5879,31 @@
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="86" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="83" t="s">
         <v>27</v>
       </c>
@@ -5915,32 +5915,32 @@
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="86" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="99" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="84"/>
@@ -5951,30 +5951,30 @@
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="84"/>
@@ -5985,55 +5985,60 @@
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="98"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -6050,11 +6055,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6132,15 +6132,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="79" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="92"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="92"/>
+      <c r="P3" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6221,7 +6221,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="123" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -6242,7 +6242,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -6255,7 +6255,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -6270,7 +6270,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="128" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="84"/>
@@ -6284,57 +6284,57 @@
       <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="128" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="84"/>
@@ -6348,21 +6348,21 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="84"/>
@@ -6376,21 +6376,21 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="128" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="84"/>
@@ -6404,18 +6404,18 @@
       <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -6424,70 +6424,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -6496,80 +6496,80 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="147" t="s">
+      <c r="C21" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="150" t="s">
+      <c r="A22" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="106"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="106"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -6584,14 +6584,14 @@
       <c r="D27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="158" t="s">
+      <c r="E27" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
     </row>
@@ -6600,180 +6600,180 @@
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
     </row>
     <row r="29" spans="1:12" s="52" customFormat="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="106"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="109"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="130"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="127"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="145"/>
     </row>
     <row r="32" spans="1:12" s="54" customFormat="1">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="148"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="117"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="124"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="102" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="109"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="104"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="107"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="154"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="63"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="64" t="s">
@@ -6796,14 +6796,14 @@
       <c r="B43" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="88"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="63">
@@ -6812,27 +6812,27 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J23"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A31:J34"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="K1:K3"/>
@@ -6849,16 +6849,16 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A31:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6911,7 +6911,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="123" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -6938,7 +6938,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -6956,7 +6956,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -7092,18 +7092,18 @@
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -7202,18 +7202,18 @@
       <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:23" s="52" customFormat="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
@@ -7336,18 +7336,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -7568,18 +7568,18 @@
       <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="42" t="s">
@@ -7712,18 +7712,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="130"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
@@ -7846,18 +7846,18 @@
       <c r="J45" s="75"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="130"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="127"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="42" t="s">

--- a/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1469,6 +1469,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,24 +1517,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,39 +1529,177 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,165 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5788,8 +5788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5804,15 +5804,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="91" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="80"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="80"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5829,45 +5829,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="83" t="s">
         <v>25</v>
       </c>
@@ -5879,31 +5879,31 @@
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="87" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="83" t="s">
         <v>27</v>
       </c>
@@ -5915,32 +5915,32 @@
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="87" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="99" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="84"/>
@@ -5951,30 +5951,30 @@
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="99" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="84"/>
@@ -5985,60 +5985,55 @@
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="91"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -6055,6 +6050,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6132,15 +6132,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="91" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="80"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="80"/>
+      <c r="P3" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6190,7 +6190,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6221,7 +6221,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="126" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -6242,7 +6242,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -6255,7 +6255,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -6270,7 +6270,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="84"/>
@@ -6284,57 +6284,57 @@
       <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="131" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="84"/>
@@ -6348,21 +6348,21 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="131" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="84"/>
@@ -6376,21 +6376,21 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="131" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="84"/>
@@ -6404,18 +6404,18 @@
       <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -6424,70 +6424,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="115"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -6496,80 +6496,80 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157"/>
     </row>
     <row r="27" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -6584,14 +6584,14 @@
       <c r="D27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
     </row>
@@ -6600,180 +6600,180 @@
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
     </row>
     <row r="29" spans="1:12" s="52" customFormat="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="127"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113"/>
     </row>
     <row r="32" spans="1:12" s="54" customFormat="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="148"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="119"/>
     </row>
     <row r="35" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="139" t="s">
+      <c r="C36" s="121"/>
+      <c r="D36" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="88"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="152"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="109"/>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="141"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="154"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="63"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="64" t="s">
@@ -6796,14 +6796,14 @@
       <c r="B43" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="88"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="63">
@@ -6812,27 +6812,27 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A31:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="K1:K3"/>
@@ -6849,16 +6849,16 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A31:J34"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6880,7 +6880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E48" sqref="E48:E49"/>
     </sheetView>
   </sheetViews>
@@ -6911,7 +6911,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="126" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -6938,7 +6938,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="124"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -6956,7 +6956,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="124"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -7092,18 +7092,18 @@
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -7202,18 +7202,18 @@
       <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:23" s="52" customFormat="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
@@ -7336,18 +7336,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -7568,18 +7568,18 @@
       <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="42" t="s">
@@ -7712,18 +7712,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="130"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
@@ -7846,18 +7846,18 @@
       <c r="J45" s="75"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="127"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="42" t="s">

--- a/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1469,32 +1469,65 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1505,38 +1538,116 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1547,10 +1658,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,36 +1697,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1606,111 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5788,7 +5788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -5804,15 +5804,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="79" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="92"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="92"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5829,45 +5829,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="83" t="s">
         <v>25</v>
       </c>
@@ -5879,31 +5879,31 @@
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="86" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="83" t="s">
         <v>27</v>
       </c>
@@ -5915,32 +5915,32 @@
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="86" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="99" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="84"/>
@@ -5951,30 +5951,30 @@
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="84"/>
@@ -5985,55 +5985,60 @@
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="98"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -6050,11 +6055,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6125,22 +6125,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="79" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="92"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="92"/>
+      <c r="P3" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6190,7 +6190,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6221,7 +6221,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="123" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -6242,7 +6242,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -6255,7 +6255,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -6270,7 +6270,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="128" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="84"/>
@@ -6284,57 +6284,57 @@
       <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="128" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="84"/>
@@ -6348,21 +6348,21 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="84"/>
@@ -6376,21 +6376,21 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="128" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="84"/>
@@ -6404,18 +6404,18 @@
       <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -6424,70 +6424,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="155"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -6496,80 +6496,80 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="147" t="s">
+      <c r="C21" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="150" t="s">
+      <c r="A22" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="106"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="106"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -6584,14 +6584,14 @@
       <c r="D27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="158" t="s">
+      <c r="E27" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
     </row>
@@ -6600,180 +6600,180 @@
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
     </row>
     <row r="29" spans="1:12" s="52" customFormat="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="106"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="109"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="130"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="127"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="145"/>
     </row>
     <row r="32" spans="1:12" s="54" customFormat="1">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="148"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="117"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="124"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="102" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="109"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="104"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="107"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="154"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="63"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="64" t="s">
@@ -6796,14 +6796,14 @@
       <c r="B43" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="88"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="63">
@@ -6812,27 +6812,27 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J23"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A31:J34"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="K1:K3"/>
@@ -6849,16 +6849,16 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A31:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6880,8 +6880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E49"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6911,7 +6911,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="123" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -6938,7 +6938,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -6956,7 +6956,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -7092,18 +7092,18 @@
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -7202,18 +7202,18 @@
       <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:23" s="52" customFormat="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
@@ -7336,18 +7336,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -7568,18 +7568,18 @@
       <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="42" t="s">
@@ -7712,18 +7712,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="130"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
@@ -7846,18 +7846,18 @@
       <c r="J45" s="75"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="130"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="127"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="42" t="s">

--- a/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
+++ b/APF/RA006/RA006_APF0601_權限資料Sync.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -2792,8 +2792,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2838,13 +2838,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5786,10 +5786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6016,21 +6016,21 @@
       <c r="K15" s="87"/>
       <c r="L15" s="88"/>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="89" t="s">
+    <row r="86" spans="1:12">
+      <c r="A86" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="91"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="90"/>
+      <c r="K86" s="90"/>
+      <c r="L86" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6043,7 +6043,7 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A86:L86"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -6081,8 +6081,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6100,13 +6100,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>93</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -6125,7 +6125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
